--- a/test/validation/Scenarios/RespiratoryValidation.xlsx
+++ b/test/validation/Scenarios/RespiratoryValidation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E79F8B6-3D03-49BA-948E-DAECF2377C25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="525" windowWidth="15045" windowHeight="7620" tabRatio="643" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="28410" yWindow="3630" windowWidth="25845" windowHeight="22755" tabRatio="643" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -17,6 +23,7 @@
     <sheet name="MainstemIntubation" sheetId="19" r:id="rId8"/>
     <sheet name="EsophagealIntubation" sheetId="24" r:id="rId9"/>
     <sheet name="Apnea" sheetId="45" r:id="rId10"/>
+    <sheet name="Supplemental Oxygen" sheetId="46" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">AirwayObstructionVaried!#REF!</definedName>
@@ -28,12 +35,20 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">MainstemIntubation!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$J$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="263">
   <si>
     <t>Oxygen Saturation</t>
   </si>
@@ -777,12 +792,57 @@
   </si>
   <si>
     <t>Apnea: Severity = 1.0</t>
+  </si>
+  <si>
+    <t>Nasal Cannala</t>
+  </si>
+  <si>
+    <t>SupplementalOxygen: Nasal Cannula</t>
+  </si>
+  <si>
+    <t>Default flow = 3.5 L/min</t>
+  </si>
+  <si>
+    <t>Fraction of Inspired Oxygen (FiO2)</t>
+  </si>
+  <si>
+    <t>Increase to ~0.4 @cite korupolu2009early, @cite bailey2007early</t>
+  </si>
+  <si>
+    <t>Increase to ~0.5 @cite korupolu2009early, @cite bailey2007early</t>
+  </si>
+  <si>
+    <t>Increase to ~0.9 @cite korupolu2009early, @cite bailey2007early</t>
+  </si>
+  <si>
+    <t>Simple Mask</t>
+  </si>
+  <si>
+    <t>Non-Rebreather Mask</t>
+  </si>
+  <si>
+    <t>Supplemental Oxygen</t>
+  </si>
+  <si>
+    <t>Nasal cannula, simple mask, and non-rebreather mask</t>
+  </si>
+  <si>
+    <t>SupplementalOxygen: Simple Mask</t>
+  </si>
+  <si>
+    <t>SupplementalOxygen: Non-Rebreather Mask</t>
+  </si>
+  <si>
+    <t>Default flow = 7.5 L/min</t>
+  </si>
+  <si>
+    <t>Default flow = 10.0 L/min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1619,6 +1679,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1666,7 +1729,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1699,9 +1762,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1734,6 +1814,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1909,14 +2006,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K19"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,19 +2399,19 @@
         <v>110</v>
       </c>
       <c r="F11" s="29">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H11" s="30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>114</v>
       </c>
       <c r="J11" s="31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>111</v>
@@ -2337,19 +2434,19 @@
         <v>110</v>
       </c>
       <c r="F12" s="29">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H12" s="30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>114</v>
       </c>
       <c r="J12" s="31">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>111</v>
@@ -2569,35 +2666,70 @@
       <c r="A19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="27"/>
+      <c r="B19" s="27" t="s">
+        <v>257</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>220</v>
+      <c r="D19" s="28" t="s">
+        <v>258</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>110</v>
       </c>
       <c r="F19" s="29">
-        <f>SUM(F3:F18)</f>
-        <v>239</v>
+        <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>113</v>
       </c>
       <c r="H19" s="30">
-        <f>SUM(H3:H18)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>114</v>
       </c>
       <c r="J19" s="31">
-        <f>SUM(J3:J18)</f>
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="29">
+        <f>SUM(F3:F19)</f>
+        <v>258</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="30">
+        <f>SUM(H3:H19)</f>
+        <v>28</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J20" s="31">
+        <f>SUM(J3:J19)</f>
+        <v>27</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2612,10 +2744,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2919,8 +3051,367 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA568C8-ADAE-4E7B-960D-973F34ED96D5}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="A12:K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="8">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="8">
+        <v>330</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="8">
+        <v>30</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="8">
+        <v>330</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="8">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="8">
+        <v>330</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4026,7 +4517,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4613,7 +5104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5436,11 +5927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5476,7 +5967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
@@ -5804,9 +6295,9 @@
         <v>142</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>143</v>
       </c>
       <c r="Q6" s="3" t="s">
@@ -5816,9 +6307,9 @@
         <v>143</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>143</v>
       </c>
       <c r="U6" s="3" t="s">
@@ -5875,21 +6366,21 @@
         <v>146</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="9" t="s">
         <v>147</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R7" s="18" t="s">
         <v>147</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" s="9" t="s">
         <v>147</v>
       </c>
       <c r="U7" s="3" t="s">
@@ -6005,9 +6496,9 @@
         <v>153</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>153</v>
       </c>
       <c r="M9" s="3" t="s">
@@ -6017,21 +6508,21 @@
         <v>153</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="9" t="s">
         <v>154</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>154</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" s="9" t="s">
         <v>154</v>
       </c>
       <c r="U9" s="3" t="s">
@@ -6377,9 +6868,9 @@
         <v>156</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>157</v>
       </c>
       <c r="Q16" s="3" t="s">
@@ -6389,9 +6880,9 @@
         <v>143</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T16" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="T16" s="9" t="s">
         <v>143</v>
       </c>
       <c r="U16" s="3" t="s">
@@ -6448,21 +6939,21 @@
         <v>158</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="9" t="s">
         <v>159</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R17" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="R17" s="18" t="s">
         <v>159</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="T17" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="T17" s="9" t="s">
         <v>159</v>
       </c>
       <c r="U17" s="3" t="s">
@@ -6507,9 +6998,9 @@
         <v>161</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L18" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L18" s="9" t="s">
         <v>153</v>
       </c>
       <c r="M18" s="3" t="s">
@@ -6519,21 +7010,21 @@
         <v>162</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="P18" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="9" t="s">
         <v>154</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R18" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="R18" s="9" t="s">
         <v>154</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="T18" s="18" t="s">
+      <c r="T18" s="9" t="s">
         <v>154</v>
       </c>
       <c r="U18" s="3" t="s">
@@ -6990,7 +7481,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7507,7 +7998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8024,14 +8515,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8485,7 +8976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/test/validation/Scenarios/RespiratoryValidation.xlsx
+++ b/test/validation/Scenarios/RespiratoryValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E79F8B6-3D03-49BA-948E-DAECF2377C25}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE6E385-6D71-4FD3-B225-8B2A2AEDDC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28410" yWindow="3630" windowWidth="25845" windowHeight="22755" tabRatio="643" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15165" yWindow="7050" windowWidth="32670" windowHeight="23535" tabRatio="643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="266">
   <si>
     <t>Oxygen Saturation</t>
   </si>
@@ -89,9 +89,6 @@
     <t>AirwayObstructionVaried</t>
   </si>
   <si>
-    <t>Administer Succinycholine - 96.4mg</t>
-  </si>
-  <si>
     <t>Drug Onset &lt; 1 minute</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t xml:space="preserve">Scenario </t>
   </si>
   <si>
-    <t>This repesents failed  endotracheal intubation that led to esophageal intubation</t>
-  </si>
-  <si>
     <t>Trigger Bronchoconstriction; severity 0.3</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>Increase,   Hypercapnia &gt; 55 mmHg   @cite bergeronSME</t>
   </si>
   <si>
-    <t>Increase,  Tachypnea, Dypsnea,  &gt; 30 @cite gunning2003pathophysiology</t>
-  </si>
-  <si>
     <t>&lt; 60% of normal @cite gunning2003pathophysiology</t>
   </si>
   <si>
@@ -587,9 +578,6 @@
     <t>Represents the partial (severity = 0.3) obstruction of airway due to  foreign body (obstructing material). Not severe enough to trigger CV responses.</t>
   </si>
   <si>
-    <t>Action Occurance Time  (s)</t>
-  </si>
-  <si>
     <t>Sampled Scenario Time  (s)</t>
   </si>
   <si>
@@ -635,9 +623,6 @@
     <t xml:space="preserve"> ET tube is adjusted to be set in the trachea (good depth).</t>
   </si>
   <si>
-    <t>Inject succinycholine; concentration = 4820 ug/ml; Dose = 20 ml</t>
-  </si>
-  <si>
     <t>Continues to drop; 93-95% @cite bergeronSME</t>
   </si>
   <si>
@@ -689,9 +674,6 @@
     <t>Moderate acute asthma attack</t>
   </si>
   <si>
-    <t>Life threateing acute asthma attack</t>
-  </si>
-  <si>
     <t>Severe Lobar Pneumonia in one lobe in the left lung</t>
   </si>
   <si>
@@ -794,12 +776,6 @@
     <t>Apnea: Severity = 1.0</t>
   </si>
   <si>
-    <t>Nasal Cannala</t>
-  </si>
-  <si>
-    <t>SupplementalOxygen: Nasal Cannula</t>
-  </si>
-  <si>
     <t>Default flow = 3.5 L/min</t>
   </si>
   <si>
@@ -837,6 +813,39 @@
   </si>
   <si>
     <t>Default flow = 10.0 L/min</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time (s)</t>
+  </si>
+  <si>
+    <t>Nasal Cannula</t>
+  </si>
+  <si>
+    <t>Supplemental Oxygen: Nasal Cannula</t>
+  </si>
+  <si>
+    <t>Action Occurrence Time  (s)</t>
+  </si>
+  <si>
+    <t>Administer Succinylcholine - 96.4mg</t>
+  </si>
+  <si>
+    <t>This represents failed  endotracheal intubation that led to esophageal intubation</t>
+  </si>
+  <si>
+    <t>Inject succinylcholine; concentration = 4820 ug/ml; Dose = 20 ml</t>
+  </si>
+  <si>
+    <t>A severity of zero should not change the leak resistance from the default open switch value.</t>
+  </si>
+  <si>
+    <t>Increase,  Tachypnea, Dyspnea  &gt; 20 @cite ebell2007predicting</t>
+  </si>
+  <si>
+    <t>Increase,  Tachypnea, Dyspnea,  &gt; 30 @cite gunning2003pathophysiology</t>
+  </si>
+  <si>
+    <t>Life threatening acute asthma attack</t>
   </si>
 </sst>
 </file>
@@ -2012,8 +2021,8 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,703 +2043,703 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F3" s="29">
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H3" s="30">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J3" s="31">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F4" s="29">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H4" s="30">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J4" s="31">
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" s="29">
         <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H5" s="30">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J5" s="31">
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" s="29">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H6" s="30">
         <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J6" s="31">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" s="29">
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J7" s="31">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F8" s="29">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H8" s="30">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J8" s="31">
         <v>2</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F9" s="29">
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H9" s="30">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J9" s="31">
         <v>2</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F10" s="29">
         <v>6</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H10" s="30">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J10" s="31">
         <v>2</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F11" s="29">
         <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H11" s="30">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J11" s="31">
         <v>2</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F12" s="29">
         <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H12" s="30">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J12" s="31">
         <v>2</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F13" s="29">
         <v>18</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H13" s="30">
         <v>6</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J13" s="31">
         <v>4</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F14" s="29">
         <v>27</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H14" s="30">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J14" s="31">
         <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F15" s="29">
         <v>25</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H15" s="30">
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J15" s="31">
         <v>5</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F16" s="29">
         <v>22</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H16" s="30">
         <v>3</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J16" s="31">
         <v>0</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F17" s="29">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H17" s="30">
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J17" s="31">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F18" s="29">
         <v>6</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H18" s="30">
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J18" s="31">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F19" s="29">
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H19" s="30">
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J19" s="31">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F20" s="29">
         <f>SUM(F3:F19)</f>
         <v>258</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H20" s="30">
         <f>SUM(H3:H19)</f>
         <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J20" s="31">
         <f>SUM(J3:J19)</f>
         <v>27</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +2757,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,282 +2777,282 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="8">
         <v>210</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7">
         <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="8">
         <v>510</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
         <v>510</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="8">
         <v>690</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7">
         <v>690</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="8">
         <v>990</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8">
         <v>990</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="8">
         <v>1170</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="7">
         <v>1170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="8">
         <v>1650</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3055,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA568C8-ADAE-4E7B-960D-973F34ED96D5}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="A12:K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3077,332 +3086,332 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="8">
         <v>330</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8">
         <v>30</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="8">
         <v>330</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="8">
         <v>30</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H14" s="8">
         <v>330</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3418,7 +3427,7 @@
   <dimension ref="A1:AA37"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3455,1001 +3464,1001 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="8">
         <v>550</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
         <v>580</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7">
         <v>775</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="5" t="s">
+      <c r="Q8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="S8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="8">
         <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H10" s="8">
         <v>550</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="L10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P10" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="10" t="s">
+      <c r="Q10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z10" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="AA10" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="8">
         <v>580</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>775</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="Q14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="S14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8">
         <v>30</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H16" s="8">
         <v>550</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W16" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="10" t="s">
+      <c r="X16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z16" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="AA16" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="8">
         <v>580</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H17" s="7">
         <v>775</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -4524,7 +4533,7 @@
   <dimension ref="A1:Y29"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:Y9"/>
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4559,238 +4568,238 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8">
         <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="J4" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="S4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T4" s="13" t="s">
+      <c r="W4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -4798,237 +4807,237 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="5" t="s">
+      <c r="O7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8">
         <v>120</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="L9" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="M9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="O9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R9" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P9" s="19" t="s">
+      <c r="S9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="13" t="s">
+      <c r="U9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="T9" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="V9" s="18" t="s">
+      <c r="W9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>104</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -5111,7 +5120,7 @@
   <dimension ref="A1:Y36"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y14" sqref="A12:Y14"/>
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5146,238 +5155,238 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="5" t="s">
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8">
         <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="L4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="Q4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="S4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" s="10" t="s">
+      <c r="U4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="Y4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5385,475 +5394,475 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="5" t="s">
+      <c r="M7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8">
         <v>120</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="R9" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="S9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P9" s="10" t="s">
+      <c r="U9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="5" t="s">
+      <c r="M12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="8">
         <v>120</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="L14" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" s="18" t="s">
+      <c r="Q14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="S14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P14" s="10" t="s">
+      <c r="U14" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>128</v>
-      </c>
       <c r="Y14" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
@@ -5931,7 +5940,7 @@
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5964,1077 +5973,1077 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="O2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="8">
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
         <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="8">
         <v>300</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="8">
         <v>360</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="8">
         <v>600</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8">
         <v>660</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="8">
         <v>900</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="R7" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="8">
         <v>960</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="8">
         <v>1000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V8" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="W8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F9" s="8">
         <v>1020</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H9" s="8">
         <v>1320</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="5" t="s">
+      <c r="O12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="Q12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H14" s="8">
         <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F15" s="8">
         <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="8">
         <v>300</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="8">
         <v>360</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H16" s="8">
         <v>600</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="R16" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>143</v>
-      </c>
       <c r="S16" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F17" s="8">
         <v>660</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H17" s="8">
         <v>900</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="R17" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F18" s="8">
         <v>960</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H18" s="8">
         <v>1260</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="T18" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -7045,433 +7054,433 @@
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B20" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L21" s="5" t="s">
+      <c r="O21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="Q21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="U21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V21" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F23" s="8">
         <v>30</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H23" s="8">
         <v>300</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F24" s="8">
         <v>330</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H24" s="8">
         <v>360</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J24" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="V24" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="W24" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F25" s="8">
         <v>390</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H25" s="8">
         <v>400</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="O25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="P25" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R25" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" s="8">
         <v>420</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H26" s="8">
         <v>720</v>
       </c>
       <c r="I26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="O26" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="P26" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="T26" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -7488,7 +7497,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:S8"/>
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7517,474 +7526,474 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>7</v>
+        <v>255</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2">
         <v>180</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7">
         <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>300</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
         <v>510</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2">
         <v>180</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J5" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>173</v>
-      </c>
       <c r="S5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7">
         <v>690</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8">
         <v>990</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>180</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="7">
         <v>1170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8005,7 +8014,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8034,474 +8043,474 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="2">
         <v>180</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J3" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>192</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7">
         <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>300</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
         <v>510</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2">
         <v>180</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7">
         <v>690</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8">
         <v>990</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2">
         <v>180</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="7">
         <v>1170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8522,7 +8531,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8554,415 +8563,415 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="M1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="7">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="7">
         <v>60</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="L3" s="26" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="7">
         <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="7">
         <v>180</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="7">
         <v>480</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F6" s="7">
         <v>480</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7">
         <v>600</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="7">
         <v>600</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H7" s="7">
         <v>900</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -8983,7 +8992,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="B7" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9012,297 +9021,297 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" s="8">
         <v>30</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>260</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F4" s="8">
         <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H4" s="8">
         <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8">
         <v>180</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="8">
         <v>500</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/test/validation/Scenarios/RespiratoryValidation.xlsx
+++ b/test/validation/Scenarios/RespiratoryValidation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\engine\test\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anusham2\Desktop\Engine\test\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE6E385-6D71-4FD3-B225-8B2A2AEDDC18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15165" yWindow="7050" windowWidth="32670" windowHeight="23535" tabRatio="643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15165" yWindow="7050" windowWidth="32670" windowHeight="23535" tabRatio="643" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -24,6 +23,7 @@
     <sheet name="EsophagealIntubation" sheetId="24" r:id="rId9"/>
     <sheet name="Apnea" sheetId="45" r:id="rId10"/>
     <sheet name="Supplemental Oxygen" sheetId="46" r:id="rId11"/>
+    <sheet name="PulmonaryFibrosis" sheetId="47" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="5">AirwayObstructionVaried!#REF!</definedName>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">MainstemIntubation!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$J$17</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="277">
   <si>
     <t>Oxygen Saturation</t>
   </si>
@@ -846,12 +846,45 @@
   </si>
   <si>
     <t>Life threatening acute asthma attack</t>
+  </si>
+  <si>
+    <t>Severe PulmonaryFibrosis</t>
+  </si>
+  <si>
+    <t>Severe Pulmonary Fibrosis</t>
+  </si>
+  <si>
+    <t>Severity = 0.9</t>
+  </si>
+  <si>
+    <t>Decreases</t>
+  </si>
+  <si>
+    <t>Increase,  Tachypnea, Dypsnea,  &gt; 30 @cite gunning2003pathophysiology</t>
+  </si>
+  <si>
+    <t>&lt; 60% of normal @cite nava1999IPF,gunning2003pathophysiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase, Pulmonary Hypertension, &gt; 140 mm Hg @cite ganeshraghu2015pulmhypertensioninipf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt; 90%  </t>
+  </si>
+  <si>
+    <t>Decrease,  Hypoxemia @cite costanzo2010physiology</t>
+  </si>
+  <si>
+    <t>Increase, Hypercapnia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1771,23 +1804,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1823,23 +1839,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2015,13 +2014,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2753,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3061,7 +3060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA568C8-ADAE-4E7B-960D-973F34ED96D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3419,8 +3418,281 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="8">
+        <v>120</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4526,7 +4798,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5113,7 +5385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5936,7 +6208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7490,7 +7762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8007,7 +8279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8524,7 +8796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8985,7 +9257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/test/validation/Scenarios/RespiratoryValidation.xlsx
+++ b/test/validation/Scenarios/RespiratoryValidation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anusham2\Desktop\Engine\test\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_UIUC\source\test\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A74002-D867-4BDA-BFAD-97FB95A42B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15165" yWindow="7050" windowWidth="32670" windowHeight="23535" tabRatio="643" firstSheet="5" activeTab="11"/>
+    <workbookView xWindow="27195" yWindow="8490" windowWidth="25335" windowHeight="16005" tabRatio="643" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -35,7 +36,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">MainstemIntubation!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$J$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -860,12 +861,6 @@
     <t>Decreases</t>
   </si>
   <si>
-    <t>Increase,  Tachypnea, Dypsnea,  &gt; 30 @cite gunning2003pathophysiology</t>
-  </si>
-  <si>
-    <t>&lt; 60% of normal @cite nava1999IPF,gunning2003pathophysiology</t>
-  </si>
-  <si>
     <t xml:space="preserve">Increase, Pulmonary Hypertension, &gt; 140 mm Hg @cite ganeshraghu2015pulmhypertensioninipf </t>
   </si>
   <si>
@@ -879,12 +874,18 @@
   </si>
   <si>
     <t xml:space="preserve">Decrease </t>
+  </si>
+  <si>
+    <t>Dyspnea, &lt; 60% of normal @cite nava1999IPF, @cite gunning2003pathophysiology</t>
+  </si>
+  <si>
+    <t>Increase,  Tachypnea,   &gt; 30 @cite gunning2003pathophysiology</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1804,6 +1805,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1839,6 +1857,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2014,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2752,7 +2787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3060,7 +3095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3419,11 +3454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3433,20 +3468,23 @@
     <col min="3" max="3" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="2.7109375" customWidth="1"/>
     <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" customWidth="1"/>
     <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
     <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" customWidth="1"/>
     <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" customWidth="1"/>
     <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" customWidth="1"/>
     <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" customWidth="1"/>
     <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" customWidth="1"/>
     <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3609,7 +3647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
@@ -3635,16 +3673,16 @@
         <v>269</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>270</v>
+        <v>107</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>276</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>271</v>
+        <v>107</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>275</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>109</v>
@@ -3656,31 +3694,31 @@
         <v>111</v>
       </c>
       <c r="P4" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>274</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>110</v>
       </c>
       <c r="V4" s="18" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>109</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>108</v>
@@ -3692,7 +3730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4798,7 +4836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5385,7 +5423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6208,7 +6246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -7762,7 +7800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8279,7 +8317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8796,7 +8834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -9257,7 +9295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/test/validation/Scenarios/RespiratoryValidation.xlsx
+++ b/test/validation/Scenarios/RespiratoryValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_UIUC\source\test\validation\Scenarios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A74002-D867-4BDA-BFAD-97FB95A42B33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0185ED2-70CD-43B5-A1AA-70BDC065221C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27195" yWindow="8490" windowWidth="25335" windowHeight="16005" tabRatio="643" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20820" yWindow="7140" windowWidth="25545" windowHeight="23535" tabRatio="643" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="272">
   <si>
     <t>Oxygen Saturation</t>
   </si>
@@ -189,15 +189,6 @@
     <t>Represents a leak on the right lung side with the severe severity (maximum size hole).  Should lead to full collapse.</t>
   </si>
   <si>
-    <t xml:space="preserve">Apply needle decompression on the left side </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apply needle decompression on the right side </t>
-  </si>
-  <si>
-    <t>Represents a leak on the right and left lung sides simultaneously with a moderate severity (large size hole).</t>
-  </si>
-  <si>
     <t>TensionPneumothoraxOpenVaried</t>
   </si>
   <si>
@@ -529,12 +520,6 @@
   </si>
   <si>
     <t>Tachycardia, but may be lower value  @cite bergeronSME</t>
-  </si>
-  <si>
-    <t>Tension Pneumothorax;  Severity: 0.5 Type: Open Side: Left Tension Pneumothorax;  Severity: 0.5 Type: Closed Side: Right</t>
-  </si>
-  <si>
-    <t>Diminished from normal @cite bergeronSME</t>
   </si>
   <si>
     <t xml:space="preserve"> Clinical sign: Tachypnea  @cite bond200968w, @cite leigh2005tension </t>
@@ -2077,703 +2062,703 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" s="33" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="33" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J1" s="33" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F3" s="29">
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H3" s="30">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J3" s="31">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F4" s="29">
         <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H4" s="30">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J4" s="31">
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F5" s="29">
         <v>16</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H5" s="30">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J5" s="31">
         <v>1</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>37</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F6" s="29">
         <v>3</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H6" s="30">
         <v>5</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J6" s="31">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F7" s="29">
         <v>3</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H7" s="30">
         <v>5</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J7" s="31">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F8" s="29">
         <v>5</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H8" s="30">
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J8" s="31">
         <v>2</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F9" s="29">
         <v>7</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H9" s="30">
         <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J9" s="31">
         <v>2</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F10" s="29">
         <v>6</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H10" s="30">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J10" s="31">
         <v>2</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>52</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F11" s="29">
         <v>39</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H11" s="30">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J11" s="31">
         <v>2</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>53</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F12" s="29">
         <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H12" s="30">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J12" s="31">
         <v>2</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>54</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F13" s="29">
         <v>18</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H13" s="30">
         <v>6</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J13" s="31">
         <v>4</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F14" s="29">
         <v>27</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H14" s="30">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J14" s="31">
         <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="27" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F15" s="29">
         <v>25</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H15" s="30">
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J15" s="31">
         <v>5</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="29">
         <v>22</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H16" s="30">
         <v>3</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J16" s="31">
         <v>0</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F17" s="29">
         <v>15</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H17" s="30">
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J17" s="31">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F18" s="29">
         <v>6</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H18" s="30">
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J18" s="31">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="29">
         <v>3</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H19" s="30">
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J19" s="31">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F20" s="29">
         <f>SUM(F3:F19)</f>
         <v>258</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H20" s="30">
         <f>SUM(H3:H19)</f>
         <v>28</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J20" s="31">
         <f>SUM(J3:J19)</f>
         <v>27</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2811,282 +2796,282 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="8">
         <v>210</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7">
         <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="8">
         <v>510</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8">
         <v>510</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="8">
         <v>690</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7">
         <v>690</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="8">
         <v>990</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8">
         <v>990</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="8">
         <v>1170</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7">
         <v>1170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="8">
         <v>1650</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3120,332 +3105,332 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="8">
         <v>330</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="8">
         <v>30</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="8">
         <v>330</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="8">
         <v>30</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="8">
         <v>330</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3457,7 +3442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3490,238 +3475,238 @@
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8">
         <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="V4" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="Y4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3774,1001 +3759,1001 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="8">
         <v>550</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8">
         <v>580</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="7">
         <v>775</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="S8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F10" s="8">
         <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H10" s="8">
         <v>550</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="L10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="AA10" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F11" s="8">
         <v>580</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
         <v>775</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>27</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>36</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="S14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z14" s="5" t="s">
         <v>25</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="8">
         <v>30</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="8">
         <v>550</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="W16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="9" t="s">
+      <c r="X16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="AA16" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" s="8">
         <v>580</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>775</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="X17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Z17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -4883,233 +4868,233 @@
     </row>
     <row r="2" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8">
         <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="J4" s="18" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L4" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T4" s="13" t="s">
+      <c r="W4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -5117,237 +5102,237 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="8">
         <v>120</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="L9" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="O9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" s="18" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R9" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="S9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="T9" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" s="19" t="s">
+      <c r="U9" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="V9" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T9" s="13" t="s">
+      <c r="W9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="V9" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>101</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -5470,233 +5455,233 @@
     </row>
     <row r="2" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8">
         <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="L4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="S4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P4" s="10" t="s">
+      <c r="U4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="Y4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5710,233 +5695,233 @@
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="8">
         <v>120</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="R9" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="S9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T9" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P9" s="10" t="s">
+      <c r="U9" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -5946,233 +5931,233 @@
     </row>
     <row r="12" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>25</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="8">
         <v>120</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="L14" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" s="18" t="s">
+      <c r="Q14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="S14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T14" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P14" s="10" t="s">
+      <c r="U14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X14" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="Y14" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
@@ -6247,10 +6232,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6283,1077 +6268,1077 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="8">
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8">
         <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="8">
         <v>300</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="8">
         <v>360</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="8">
         <v>600</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8">
         <v>660</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="8">
         <v>900</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="R7" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="8">
         <v>960</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="8">
         <v>1000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V8" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>149</v>
-      </c>
       <c r="W8" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="8">
         <v>1020</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H9" s="8">
         <v>1320</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="Q12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H14" s="8">
         <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="8">
         <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H15" s="8">
         <v>300</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="8">
         <v>360</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H16" s="8">
         <v>600</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="S16" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>45</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F17" s="8">
         <v>660</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H17" s="8">
         <v>900</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="R17" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F18" s="8">
         <v>960</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H18" s="8">
         <v>1260</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="T18" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -7361,437 +7346,6 @@
       <c r="C19" s="21"/>
       <c r="E19" s="21"/>
       <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T21" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V22" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="8">
-        <v>30</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="8">
-        <v>300</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="P23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="R23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="T23" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="8">
-        <v>330</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="8">
-        <v>360</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L24" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P24" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="8">
-        <v>390</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="8">
-        <v>400</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N25" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P25" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="8">
-        <v>420</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="8">
-        <v>720</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L26" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N26" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P26" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="R26" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="T26" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>108</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7836,474 +7390,474 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2">
         <v>180</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J3" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>171</v>
-      </c>
       <c r="S3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7">
         <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>300</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8">
         <v>510</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2">
         <v>180</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>172</v>
-      </c>
       <c r="O5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7">
         <v>690</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8">
         <v>990</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2">
         <v>180</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7">
         <v>1170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -8353,474 +7907,474 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2">
         <v>180</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7">
         <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>300</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8">
         <v>510</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2">
         <v>180</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7">
         <v>690</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="8">
         <v>990</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="2">
         <v>180</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7">
         <v>1170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -8873,415 +8427,415 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="7">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="7">
         <v>60</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="L3" s="26" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N3" s="26" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="7">
         <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="7">
         <v>180</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="7">
         <v>180</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="7">
         <v>480</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="7">
         <v>480</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H6" s="7">
         <v>600</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L6" s="23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N6" s="23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7">
         <v>600</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="7">
         <v>900</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -9331,297 +8885,297 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="S1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H3" s="8">
         <v>30</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F4" s="8">
         <v>60</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H4" s="8">
         <v>120</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L4" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N4" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" s="8">
         <v>180</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H5" s="8">
         <v>500</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/test/validation/Scenarios/RespiratoryValidation.xlsx
+++ b/test/validation/Scenarios/RespiratoryValidation.xlsx
@@ -8,32 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0185ED2-70CD-43B5-A1AA-70BDC065221C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B4CF3B-0B7C-4B71-8291-E7211322C7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20820" yWindow="7140" windowWidth="25545" windowHeight="23535" tabRatio="643" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1695" windowWidth="40350" windowHeight="25635" tabRatio="643" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
     <sheet name="AsthmaAttack" sheetId="32" r:id="rId2"/>
     <sheet name="COPD" sheetId="34" r:id="rId3"/>
     <sheet name="LobarPneumonia" sheetId="35" r:id="rId4"/>
-    <sheet name="TensionPneumothorax" sheetId="44" r:id="rId5"/>
-    <sheet name="AirwayObstructionVaried" sheetId="16" r:id="rId6"/>
-    <sheet name="Bronchoconstriction" sheetId="23" r:id="rId7"/>
-    <sheet name="MainstemIntubation" sheetId="19" r:id="rId8"/>
-    <sheet name="EsophagealIntubation" sheetId="24" r:id="rId9"/>
-    <sheet name="Apnea" sheetId="45" r:id="rId10"/>
-    <sheet name="Supplemental Oxygen" sheetId="46" r:id="rId11"/>
-    <sheet name="PulmonaryFibrosis" sheetId="47" r:id="rId12"/>
+    <sheet name="PulmonaryFibrosis" sheetId="47" r:id="rId5"/>
+    <sheet name="TensionPneumothorax" sheetId="44" r:id="rId6"/>
+    <sheet name="AirwayObstructionVaried" sheetId="16" r:id="rId7"/>
+    <sheet name="Bronchoconstriction" sheetId="23" r:id="rId8"/>
+    <sheet name="MainstemIntubation" sheetId="19" r:id="rId9"/>
+    <sheet name="EsophagealIntubation" sheetId="24" r:id="rId10"/>
+    <sheet name="Dyspnea" sheetId="45" r:id="rId11"/>
+    <sheet name="Supplemental Oxygen" sheetId="46" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">AirwayObstructionVaried!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">AirwayObstructionVaried!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">AsthmaAttack!$B$2:$Z$6</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">Bronchoconstriction!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Bronchoconstriction!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">COPD!$B$2:$X$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">EsophagealIntubation!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">EsophagealIntubation!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">LobarPneumonia!$B$2:$X$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">MainstemIntubation!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">MainstemIntubation!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$B$1:$J$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1878" uniqueCount="260">
   <si>
     <t>Oxygen Saturation</t>
   </si>
@@ -90,9 +90,6 @@
     <t>AirwayObstructionVaried</t>
   </si>
   <si>
-    <t>Drug Onset &lt; 1 minute</t>
-  </si>
-  <si>
     <t>Esophageal Intubation</t>
   </si>
   <si>
@@ -195,18 +192,12 @@
     <t>TensionPneumothoraxClosedVaried</t>
   </si>
   <si>
-    <t>TensionPneumothoraxBilateral</t>
-  </si>
-  <si>
     <t>Varied open pneumothorax severities and interventions</t>
   </si>
   <si>
     <t>Varied closed pneumothorax severities and interventions</t>
   </si>
   <si>
-    <t>Open and closed bilateral pneumothorax and interventions</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
@@ -603,27 +594,12 @@
     <t>Increase  tachycardia  @cite faust2002anesthesiology, @cite Morgan2006Clinical</t>
   </si>
   <si>
-    <t>Neuromuscular blocker agent is administered to represent events that facilitate endotracheal intubation.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ET tube is adjusted to be set in the trachea (good depth).</t>
   </si>
   <si>
     <t>Continues to drop; 93-95% @cite bergeronSME</t>
   </si>
   <si>
-    <t>Goes to Zero @cite Morgan2006Clinical             @cite dukeSME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mild  Increase @cite Morgan2006Clinical                       5-10% Decrease @cite dukeSME    </t>
-  </si>
-  <si>
-    <t>Mild  Increase @cite Morgan2006Clinical                      5-10% Decrease @cite dukeSME</t>
-  </si>
-  <si>
-    <t>Mild  Increase @cite Morgan2006Clinical                       5-10% Decrease @cite dukeSME</t>
-  </si>
-  <si>
     <t>Towards normal @cite bergeronSME</t>
   </si>
   <si>
@@ -648,9 +624,6 @@
     <t>Oxygen Saturation  (mmHg)</t>
   </si>
   <si>
-    <t xml:space="preserve">Mild  Increase @cite Morgan2006Clinical;                       5-10% Decrease @cite dukeSME    </t>
-  </si>
-  <si>
     <t xml:space="preserve"> If undetected and O2 level drops significantly, Mild Increase @cite dukeSME</t>
   </si>
   <si>
@@ -696,9 +669,6 @@
     <t xml:space="preserve">returns to resting physiology </t>
   </si>
   <si>
-    <t xml:space="preserve">Begins to drop according to preoxygenated O2 curve </t>
-  </si>
-  <si>
     <t xml:space="preserve">Zero </t>
   </si>
   <si>
@@ -714,9 +684,6 @@
     <t>ET tube is adjusted, but it is set in the left mainstem.</t>
   </si>
   <si>
-    <t>Apnea</t>
-  </si>
-  <si>
     <t>Varied severities of respiratory apnea</t>
   </si>
   <si>
@@ -729,12 +696,6 @@
     <t>Mild</t>
   </si>
   <si>
-    <t>Apnea: Severity = 0.3</t>
-  </si>
-  <si>
-    <t>Apnea: Severity = 0.0</t>
-  </si>
-  <si>
     <t>Healthy</t>
   </si>
   <si>
@@ -756,12 +717,6 @@
     <t>Turn on Anesthesia Machine and insert   Endotracheal (ET) tube in the left mainstem</t>
   </si>
   <si>
-    <t>Apnea: Severity = 0.6</t>
-  </si>
-  <si>
-    <t>Apnea: Severity = 1.0</t>
-  </si>
-  <si>
     <t>Default flow = 3.5 L/min</t>
   </si>
   <si>
@@ -813,15 +768,9 @@
     <t>Action Occurrence Time  (s)</t>
   </si>
   <si>
-    <t>Administer Succinylcholine - 96.4mg</t>
-  </si>
-  <si>
     <t>This represents failed  endotracheal intubation that led to esophageal intubation</t>
   </si>
   <si>
-    <t>Inject succinylcholine; concentration = 4820 ug/ml; Dose = 20 ml</t>
-  </si>
-  <si>
     <t>A severity of zero should not change the leak resistance from the default open switch value.</t>
   </si>
   <si>
@@ -834,9 +783,6 @@
     <t>Life threatening acute asthma attack</t>
   </si>
   <si>
-    <t>Severe PulmonaryFibrosis</t>
-  </si>
-  <si>
     <t>Severe Pulmonary Fibrosis</t>
   </si>
   <si>
@@ -846,9 +792,6 @@
     <t>Decreases</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase, Pulmonary Hypertension, &gt; 140 mm Hg @cite ganeshraghu2015pulmhypertensioninipf </t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt; 90%  </t>
   </si>
   <si>
@@ -861,10 +804,31 @@
     <t xml:space="preserve">Decrease </t>
   </si>
   <si>
-    <t>Dyspnea, &lt; 60% of normal @cite nava1999IPF, @cite gunning2003pathophysiology</t>
-  </si>
-  <si>
     <t>Increase,  Tachypnea,   &gt; 30 @cite gunning2003pathophysiology</t>
+  </si>
+  <si>
+    <t>Dysnea: Severity = 0.3</t>
+  </si>
+  <si>
+    <t>Dysnea: Severity = 0.0</t>
+  </si>
+  <si>
+    <t>Dysnea: Severity = 0.6</t>
+  </si>
+  <si>
+    <t>Dysnea: Severity = 1.0</t>
+  </si>
+  <si>
+    <t>Dyspnea</t>
+  </si>
+  <si>
+    <t>PulmonaryFibrosisSevere</t>
+  </si>
+  <si>
+    <t>Dyspnea, &lt; 60% of normal @cite nava1999lung, @cite gunning2003pathophysiology</t>
+  </si>
+  <si>
+    <t>Increase, Pulmonary Hypertension, &gt; 140 mm Hg @cite raghu2015pulmonary</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1460,7 @@
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1569,9 +1533,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2041,7 +2002,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,709 +2023,709 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>210</v>
+        <v>49</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>201</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>211</v>
+        <v>49</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>202</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>212</v>
+        <v>49</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>203</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>62</v>
+        <v>49</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>202</v>
+        <v>49</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>193</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="28">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F3" s="29">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J3" s="31">
+        <v>105</v>
+      </c>
+      <c r="J3" s="30">
         <v>0</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>29</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>201</v>
+        <v>49</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>192</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="28">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="29">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <v>3</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J4" s="31">
+        <v>105</v>
+      </c>
+      <c r="J4" s="30">
         <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>260</v>
+        <v>49</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>243</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="28">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F5" s="29">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="30">
-        <v>1</v>
+      <c r="H5" s="29">
+        <v>3</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="31">
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="J5" s="30">
+        <v>0</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>32</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>37</v>
+        <v>49</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="28">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="29">
+      <c r="H6" s="29">
         <v>3</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" s="30">
-        <v>5</v>
-      </c>
       <c r="I6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J6" s="31">
+        <v>105</v>
+      </c>
+      <c r="J6" s="30">
         <v>1</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>31</v>
+        <v>49</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>38</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="28">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F7" s="29">
-        <v>3</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="30">
-        <v>5</v>
+      <c r="H7" s="29">
+        <v>1</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="31">
+        <v>105</v>
+      </c>
+      <c r="J7" s="30">
         <v>1</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>203</v>
+        <v>49</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>194</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="28">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="29">
+      <c r="H8" s="29">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="30">
+      <c r="I8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" s="30">
         <v>2</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J8" s="31">
-        <v>2</v>
-      </c>
       <c r="K8" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>204</v>
+        <v>49</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>195</v>
       </c>
       <c r="E9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="28">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="29">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0</v>
+      <c r="H9" s="29">
+        <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="31">
+        <v>105</v>
+      </c>
+      <c r="J9" s="30">
         <v>2</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>35</v>
+        <v>49</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>34</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>205</v>
+        <v>49</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>196</v>
       </c>
       <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="28">
+        <v>6</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="29">
-        <v>6</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" s="31">
+        <v>105</v>
+      </c>
+      <c r="J10" s="30">
         <v>2</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>257</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>49</v>
+        <v>49</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>244</v>
       </c>
       <c r="E11" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="28">
+        <v>7</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="29">
-        <v>39</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J11" s="31">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="J11" s="30">
+        <v>1</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>50</v>
-      </c>
       <c r="E12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="28">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="29">
-        <v>32</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J12" s="31">
-        <v>2</v>
+        <v>105</v>
+      </c>
+      <c r="J12" s="30">
+        <v>1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="28">
+        <v>32</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F13" s="29">
-        <v>18</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H13" s="30">
-        <v>6</v>
+      <c r="H13" s="29">
+        <v>1</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="31">
-        <v>4</v>
+        <v>105</v>
+      </c>
+      <c r="J13" s="30">
+        <v>2</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="28">
+        <v>27</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="29">
-        <v>27</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="31">
+        <v>105</v>
+      </c>
+      <c r="J14" s="30">
         <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>17</v>
+        <v>49</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="E15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="28">
+        <v>25</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="29">
-        <v>25</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="30">
+      <c r="H15" s="29">
         <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J15" s="31">
+        <v>105</v>
+      </c>
+      <c r="J15" s="30">
         <v>5</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>223</v>
+        <v>49</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>212</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="28">
+        <v>20</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="29">
-        <v>22</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="30">
-        <v>3</v>
+      <c r="H16" s="29">
+        <v>0</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J16" s="31">
+        <v>105</v>
+      </c>
+      <c r="J16" s="30">
         <v>0</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="28">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="29">
-        <v>15</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <v>0</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J17" s="31">
+        <v>105</v>
+      </c>
+      <c r="J17" s="30">
         <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>221</v>
+        <v>49</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>256</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>222</v>
+        <v>49</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>211</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="28">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="29">
-        <v>6</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="30">
+      <c r="H18" s="29">
         <v>0</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J18" s="31">
+        <v>105</v>
+      </c>
+      <c r="J18" s="30">
         <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>244</v>
+        <v>49</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>229</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>245</v>
+        <v>49</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>230</v>
       </c>
       <c r="E19" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="28">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="29">
-        <v>3</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="30">
+      <c r="H19" s="29">
         <v>0</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J19" s="31">
+        <v>105</v>
+      </c>
+      <c r="J19" s="30">
         <v>0</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="B20" s="26"/>
       <c r="C20" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" s="28">
+        <f>SUM(F3:F19)</f>
+        <v>241</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="29">
-        <f>SUM(F3:F19)</f>
-        <v>258</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="30">
+      <c r="H20" s="29">
         <f>SUM(H3:H19)</f>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J20" s="31">
+        <v>105</v>
+      </c>
+      <c r="J20" s="30">
         <f>SUM(J3:J19)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
@@ -2772,11 +2733,292 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S4" sqref="A1:S4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" style="14" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2" style="14" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="8">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="8">
+        <v>120</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="8">
+        <v>180</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="8">
+        <v>500</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="40" orientation="landscape" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0">
+    <oddHeader>&amp;L&amp;A</oddHeader>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2796,282 +3038,282 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="8">
         <v>210</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7">
         <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="8">
         <v>510</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8">
         <v>510</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="8">
         <v>690</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="7">
         <v>690</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="8">
         <v>990</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="8">
         <v>990</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="8">
         <v>1170</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7">
         <v>1170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="8">
         <v>1650</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3079,12 +3321,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3105,608 +3347,332 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="8">
         <v>330</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="8">
         <v>30</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H9" s="8">
         <v>330</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="8">
         <v>30</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H14" s="8">
         <v>330</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:Y4"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" customWidth="1"/>
-    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" customWidth="1"/>
-    <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" customWidth="1"/>
-    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.140625" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.140625" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="8">
-        <v>120</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3721,8 +3687,8 @@
   </sheetPr>
   <dimension ref="A1:AA37"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA17" sqref="A14:AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3759,1001 +3725,1001 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X2" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="8">
         <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="8">
         <v>550</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>77</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P4" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8">
         <v>580</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7">
         <v>775</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="S8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V9" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X9" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F10" s="8">
         <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H10" s="8">
         <v>550</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="L10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z10" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R10" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="X10" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z10" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="AA10" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F11" s="8">
         <v>580</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H11" s="7">
         <v>775</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="S14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V14" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X14" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F16" s="8">
         <v>30</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H16" s="8">
         <v>550</v>
       </c>
       <c r="I16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="L16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="9" t="s">
+      <c r="O16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X16" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V16" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="X16" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>81</v>
-      </c>
       <c r="AA16" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="7"/>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F17" s="8">
         <v>580</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>775</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Z17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AA17" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -4813,7 +4779,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="22" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
@@ -4827,8 +4793,8 @@
   </sheetPr>
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y4" sqref="A2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4863,238 +4829,238 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V2" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="8">
         <v>120</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="J4" s="18" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L4" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P4" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T4" s="13" t="s">
+      <c r="W4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y4" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V4" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="X4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -5102,237 +5068,237 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V6" s="16"/>
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="Q7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V8" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="8">
         <v>120</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="U9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P9" s="19" t="s">
+      <c r="V9" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T9" s="13" t="s">
+      <c r="W9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X9" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="V9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="X9" s="10" t="s">
-        <v>98</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -5400,7 +5366,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="30" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
@@ -5414,8 +5380,8 @@
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y14" sqref="A12:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5450,178 +5416,178 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T2" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="8">
         <v>120</v>
@@ -5629,59 +5595,59 @@
       <c r="G4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>258</v>
+      <c r="H4" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L4" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N4" s="12" t="s">
+      <c r="S4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P4" s="10" t="s">
+      <c r="U4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X4" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R4" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T4" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="Y4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -5689,475 +5655,475 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="O7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X8" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="8">
         <v>120</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="L9" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="Q9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="12" t="s">
+      <c r="S9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T9" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P9" s="10" t="s">
+      <c r="U9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T9" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V9" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X9" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="Y9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="O12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T12" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="8">
         <v>120</v>
       </c>
       <c r="G14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N14" s="12" t="s">
+      <c r="T14" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" s="10" t="s">
+      <c r="U14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="X14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T14" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>122</v>
-      </c>
       <c r="Y14" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.25">
@@ -6223,7 +6189,7 @@
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="66" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="30" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
@@ -6231,11 +6197,287 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:Y4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.140625" customWidth="1"/>
+    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" customWidth="1"/>
+    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.140625" customWidth="1"/>
+    <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.140625" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.140625" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.140625" customWidth="1"/>
+    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="8">
+        <v>120</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W18" sqref="A12:W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6268,1077 +6510,1077 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="8">
         <v>0</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="8">
         <v>15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8">
         <v>30</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="8">
         <v>300</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="8">
         <v>360</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="8">
         <v>600</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>137</v>
-      </c>
       <c r="Q6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>137</v>
+        <v>103</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>134</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="8">
         <v>660</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="8">
         <v>900</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="R7" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="8">
         <v>960</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="8">
         <v>1000</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V8" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="W8" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F9" s="8">
         <v>1020</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H9" s="8">
         <v>1320</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P9" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B11" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P12" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="Q12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H14" s="8">
         <v>15</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="8">
         <v>30</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H15" s="8">
         <v>300</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F16" s="8">
         <v>360</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H16" s="8">
         <v>600</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="R16" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>137</v>
-      </c>
       <c r="S16" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="U16" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:23" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F17" s="8">
         <v>660</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H17" s="8">
         <v>900</v>
       </c>
       <c r="I17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J17" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="R17" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V17" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F18" s="8">
         <v>960</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H18" s="8">
         <v>1260</v>
       </c>
       <c r="I18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="S18" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>107</v>
-      </c>
       <c r="T18" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U18" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -7353,7 +7595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7361,7 +7603,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
+      <selection activeCell="S8" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7390,487 +7632,487 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
         <v>180</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7">
         <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>300</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8">
         <v>510</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2">
         <v>180</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J5" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R5" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>165</v>
-      </c>
       <c r="S5" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="7">
         <v>690</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="8">
         <v>990</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="2">
         <v>180</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="N7" s="24" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7">
         <v>1170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="41" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -7878,7 +8120,7 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
+      <selection activeCell="S8" sqref="A1:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7907,495 +8149,495 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F3" s="8">
         <v>30</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2">
         <v>180</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J3" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>182</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R3" s="23" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7">
         <v>210</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
         <v>300</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="8">
         <v>510</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2">
         <v>180</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J5" s="23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L5" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N5" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R5" s="23" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="7">
         <v>690</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7">
         <v>300</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F7" s="8">
         <v>990</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H7" s="2">
         <v>180</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J7" s="23" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L7" s="23" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N7" s="23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R7" s="23" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7">
         <v>1170</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>500</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="68" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="39" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
+      <selection activeCell="S6" sqref="A1:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8427,761 +8669,362 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="O1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="7">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="7">
+        <v>180</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="7">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="7">
-        <v>60</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L3" s="26" t="s">
-        <v>188</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>189</v>
+        <v>103</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="26" t="s">
-        <v>190</v>
+        <v>103</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>215</v>
+        <v>103</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="7">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H4" s="7">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>192</v>
+        <v>103</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>192</v>
+        <v>103</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>192</v>
+        <v>103</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>24</v>
+        <v>221</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F5" s="7">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H5" s="7">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>191</v>
+        <v>103</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>191</v>
+        <v>103</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>191</v>
+        <v>103</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>234</v>
+        <v>23</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F6" s="7">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H6" s="7">
-        <v>600</v>
+        <v>900</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L6" s="23" t="s">
-        <v>192</v>
+        <v>103</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>192</v>
+        <v>103</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>192</v>
+        <v>103</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="7">
-        <v>600</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="7">
-        <v>900</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="67" orientation="landscape" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0">
-    <oddHeader>&amp;L&amp;A</oddHeader>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:S5"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:S8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" style="14" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" style="14" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2" style="14" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="8">
-        <v>30</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="8">
-        <v>30</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="8">
-        <v>60</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="8">
-        <v>120</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="8">
-        <v>180</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="8">
-        <v>500</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="71" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="38" orientation="landscape" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
     <oddHeader>&amp;L&amp;A</oddHeader>
   </headerFooter>

--- a/test/validation/Scenarios/RespiratoryValidation.xlsx
+++ b/test/validation/Scenarios/RespiratoryValidation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Source\Pulse_Documentation\source\test\validation\Scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B4CF3B-0B7C-4B71-8291-E7211322C7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B8DD8E-E1C5-457F-86E1-A7C7E2882E6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1695" windowWidth="40350" windowHeight="25635" tabRatio="643" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14055" yWindow="5250" windowWidth="30495" windowHeight="24645" tabRatio="643" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="21" r:id="rId1"/>
@@ -5380,8 +5380,8 @@
   </sheetPr>
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y14" sqref="A12:Y14"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6200,35 +6200,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y4" sqref="A2:Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" customWidth="1"/>
-    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.140625" customWidth="1"/>
-    <col min="11" max="11" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.140625" customWidth="1"/>
-    <col min="17" max="17" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.140625" customWidth="1"/>
-    <col min="19" max="19" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" customWidth="1"/>
-    <col min="21" max="21" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.140625" customWidth="1"/>
-    <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.140625" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6416,13 +6417,13 @@
         <v>246</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>251</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>258</v>
@@ -6477,7 +6478,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W18" sqref="A12:W18"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
